--- a/data/schub/small/admins.xlsx
+++ b/data/schub/small/admins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layo\Desktop\ALX\schub\data2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9404A03E-A0B4-4A13-A032-A8AD605D6BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64C191-C3F8-4106-94F8-3E5EA05A8982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25485" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{CEEE0883-0B3F-4224-B1DA-2D3DDD7CAC7A}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{CEEE0883-0B3F-4224-B1DA-2D3DDD7CAC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>2017-03-25 02:17:06</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>53af4926-52ee-41d0-9acc-ae7230000002</t>
+  </si>
+  <si>
+    <t>recovery_question</t>
+  </si>
+  <si>
+    <t>recovery_answer</t>
+  </si>
+  <si>
+    <t>Micoliser(FoolishnessIncarnate)</t>
+  </si>
+  <si>
+    <t>FoolishJesulayomi</t>
+  </si>
+  <si>
+    <t>What is your baby's name</t>
   </si>
 </sst>
 </file>
@@ -440,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DF8C7F-4679-4C52-9B05-6CEB32D48996}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,10 +469,11 @@
     <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -476,8 +492,14 @@
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -496,8 +518,14 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -516,8 +544,14 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="1"/>
       <c r="E4" s="3"/>
